--- a/Jupyter/simulationID/cim_0324_0620/data/bldg/after_215_24.xlsx
+++ b/Jupyter/simulationID/cim_0324_0620/data/bldg/after_215_24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="17">
   <si>
     <t>appUnits</t>
   </si>
@@ -49,10 +49,22 @@
     <t>status</t>
   </si>
   <si>
+    <t>renewd</t>
+  </si>
+  <si>
+    <t>PlanID</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
     <t>215_24</t>
   </si>
   <si>
     <t>Tama 38_1</t>
+  </si>
+  <si>
+    <t>after</t>
   </si>
 </sst>
 </file>
@@ -410,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +462,17 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -459,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>86</v>
@@ -486,10 +507,19 @@
         <v>647.5</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>20110270</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -497,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>86</v>
@@ -524,10 +554,19 @@
         <v>647.5</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>20110270</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -535,7 +574,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>86</v>
@@ -562,10 +601,19 @@
         <v>647.5</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>20110270</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -573,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>86</v>
@@ -600,10 +648,19 @@
         <v>647.5</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>20110270</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -611,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>86</v>
@@ -638,10 +695,19 @@
         <v>647.5</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>20110270</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -649,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>86</v>
@@ -676,10 +742,19 @@
         <v>647.5</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>20110270</v>
+      </c>
+      <c r="O7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -687,7 +762,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>86</v>
@@ -714,10 +789,19 @@
         <v>647.5</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>20110270</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -725,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>86</v>
@@ -752,10 +836,19 @@
         <v>647.5</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>20110270</v>
+      </c>
+      <c r="O9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -763,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>86</v>
@@ -790,10 +883,19 @@
         <v>647.5</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>20110270</v>
+      </c>
+      <c r="O10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -801,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>86</v>
@@ -828,10 +930,19 @@
         <v>647.5</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>20110270</v>
+      </c>
+      <c r="O11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -839,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>86</v>
@@ -866,10 +977,19 @@
         <v>647.5</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>20110270</v>
+      </c>
+      <c r="O12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -877,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>86</v>
@@ -904,10 +1024,19 @@
         <v>647.5</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13">
+        <v>20110270</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -915,7 +1044,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>86</v>
@@ -942,10 +1071,19 @@
         <v>647.5</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14">
+        <v>20110270</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -953,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>86</v>
@@ -980,10 +1118,19 @@
         <v>647.5</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <v>20110270</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -991,7 +1138,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>86</v>
@@ -1018,10 +1165,19 @@
         <v>647.5</v>
       </c>
       <c r="L16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16">
+        <v>20110270</v>
+      </c>
+      <c r="O16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1029,7 +1185,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>86</v>
@@ -1056,10 +1212,19 @@
         <v>647.5</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>20110270</v>
+      </c>
+      <c r="O17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1067,7 +1232,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>86</v>
@@ -1094,10 +1259,19 @@
         <v>647.5</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <v>20110270</v>
+      </c>
+      <c r="O18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1105,7 +1279,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>86</v>
@@ -1132,10 +1306,19 @@
         <v>647.5</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <v>20110270</v>
+      </c>
+      <c r="O19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1143,7 +1326,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>86</v>
@@ -1170,10 +1353,19 @@
         <v>647.5</v>
       </c>
       <c r="L20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20">
+        <v>20110270</v>
+      </c>
+      <c r="O20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1181,7 +1373,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>86</v>
@@ -1208,10 +1400,19 @@
         <v>647.5</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>20110270</v>
+      </c>
+      <c r="O21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1219,7 +1420,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>86</v>
@@ -1246,10 +1447,19 @@
         <v>647.5</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22">
+        <v>20110270</v>
+      </c>
+      <c r="O22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1257,7 +1467,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>86</v>
@@ -1284,10 +1494,19 @@
         <v>647.5</v>
       </c>
       <c r="L23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23">
+        <v>20110270</v>
+      </c>
+      <c r="O23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1295,7 +1514,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>86</v>
@@ -1322,10 +1541,19 @@
         <v>647.5</v>
       </c>
       <c r="L24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24">
+        <v>20110270</v>
+      </c>
+      <c r="O24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1333,7 +1561,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>86</v>
@@ -1360,10 +1588,19 @@
         <v>647.5</v>
       </c>
       <c r="L25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25">
+        <v>20110270</v>
+      </c>
+      <c r="O25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1371,7 +1608,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>86</v>
@@ -1398,10 +1635,19 @@
         <v>647.5</v>
       </c>
       <c r="L26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26">
+        <v>20110270</v>
+      </c>
+      <c r="O26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1409,7 +1655,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>86</v>
@@ -1436,10 +1682,19 @@
         <v>647.5</v>
       </c>
       <c r="L27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27">
+        <v>20110270</v>
+      </c>
+      <c r="O27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1447,7 +1702,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>86</v>
@@ -1474,10 +1729,19 @@
         <v>647.5</v>
       </c>
       <c r="L28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28">
+        <v>20110270</v>
+      </c>
+      <c r="O28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1485,7 +1749,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>86</v>
@@ -1512,10 +1776,19 @@
         <v>647.5</v>
       </c>
       <c r="L29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29">
+        <v>20110270</v>
+      </c>
+      <c r="O29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1523,7 +1796,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>86</v>
@@ -1550,10 +1823,19 @@
         <v>647.5</v>
       </c>
       <c r="L30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30">
+        <v>20110270</v>
+      </c>
+      <c r="O30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1561,7 +1843,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>86</v>
@@ -1588,6 +1870,15 @@
         <v>647.5</v>
       </c>
       <c r="L31" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31">
+        <v>20110270</v>
+      </c>
+      <c r="O31">
         <v>12</v>
       </c>
     </row>
